--- a/Outputs/1. Budget/Output Files/2000000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Output Files/2000000/Output_1_27.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2276451.075316475</v>
+        <v>2263877.78197924</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>237.4552014283703</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>103.0234800710807</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>30.60408762095413</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>126.0887386816669</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>367.5424755537142</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.54110646053103</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
-        <v>150.7761107361267</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>22.35002255071607</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>261.9025067912345</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274086</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051957</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014448</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>60.54139430664009</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>66.14085215535378</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7644211441605784</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1785,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>86.80469552384545</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>220.6345849966179</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>161.1646511182027</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>26.97444673954864</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>139.1537278750036</v>
       </c>
     </row>
     <row r="23">
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.5605274488297</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.7644211441608035</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>155.8385935972322</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>174.3062600431772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>155.8385935972308</v>
+        <v>164.3650309254209</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.913828367531</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>66.14085215535403</v>
       </c>
       <c r="Y34" t="n">
-        <v>174.3062600431822</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>59.77945773664958</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>148.933159406416</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2.49698904181446</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>176.9527187969217</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002183</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1435.441956461044</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C2" t="n">
-        <v>1435.441956461044</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="D2" t="n">
-        <v>1435.441956461044</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="E2" t="n">
-        <v>1049.653703862799</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>638.6677990731919</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1822.041796525165</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,22 +4412,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>529.7758821321493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>379.6592427198135</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>231.7461491374204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>84.85620163951003</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>808.0839286340179</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>439.1214116936061</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>439.1214116936061</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>439.1214116936061</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4603,16 +4603,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477204</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7923845674169</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>84.79258430574933</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278601</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017521</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1763.586886263858</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4889,19 +4889,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>245.45494510253</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>76.51876217462311</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>76.51876217462311</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>76.51876217462311</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>76.51876217462311</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>463.5809975486215</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>463.5809975486215</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>463.5809975486215</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X10" t="n">
-        <v>235.5914466506042</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>245.45494510253</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
@@ -5050,43 +5050,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643321</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899124</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207827</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.85457301429</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.538293612648</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571605</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636242</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307618</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526315</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>420.3226148324558</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C13" t="n">
-        <v>420.3226148324558</v>
+        <v>927.5390436562257</v>
       </c>
       <c r="D13" t="n">
-        <v>420.3226148324558</v>
+        <v>777.4224042438899</v>
       </c>
       <c r="E13" t="n">
-        <v>420.3226148324558</v>
+        <v>629.5093106614968</v>
       </c>
       <c r="F13" t="n">
-        <v>420.3226148324558</v>
+        <v>482.6193631635864</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>314.444041483407</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>164.0260330313503</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.497233179936</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471186</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
         <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119726</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035279</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247844</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.0071030383426</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324558</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>420.3226148324558</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>420.3226148324558</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>420.3226148324558</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>675.007103038344</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C16" t="n">
-        <v>675.007103038344</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D16" t="n">
-        <v>675.007103038344</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1411.234759927755</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="V16" t="n">
-        <v>675.007103038344</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="W16" t="n">
-        <v>675.007103038344</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="X16" t="n">
-        <v>675.007103038344</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="Y16" t="n">
-        <v>675.007103038344</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="17">
@@ -5506,19 +5506,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>822.6075462588844</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C19" t="n">
-        <v>653.6713633309776</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5709,16 +5709,16 @@
         <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.977949951427</v>
       </c>
       <c r="W19" t="n">
-        <v>1387.841167119728</v>
+        <v>875.5607799144661</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.048590232654</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y19" t="n">
-        <v>1004.256011089124</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5758,13 +5758,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>223.1552313137088</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>634.0455001582214</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646855</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.4640073588198</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5943,19 +5943,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>754.894602230607</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X22" t="n">
-        <v>526.9050513325897</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y22" t="n">
-        <v>306.1124721890595</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,43 +5968,43 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,37 +6056,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>846.3978353108171</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="C25" t="n">
-        <v>677.4616523829102</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="D25" t="n">
-        <v>527.3450129705744</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F25" t="n">
         <v>527.3450129705744</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247865</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>964.1357418247865</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>964.1357418247865</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W25" t="n">
-        <v>964.1357418247865</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X25" t="n">
-        <v>964.1357418247865</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.1357418247865</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6223,16 +6223,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,13 +6244,13 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>4230.423978142506</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>4061.487795214599</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>3911.371155802263</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>3616.56811472196</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W28" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X28" t="n">
-        <v>1498.916270557903</v>
+        <v>4632.865022116275</v>
       </c>
       <c r="Y28" t="n">
-        <v>1322.84934122136</v>
+        <v>4412.072442972745</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
         <v>1701.093169003441</v>
@@ -6454,55 +6454,55 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690734</v>
+        <v>3224.712326690732</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409607</v>
+        <v>3050.259297409605</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748356</v>
+        <v>2901.324887748354</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.0874327429</v>
+        <v>2742.087432742898</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769785</v>
+        <v>2595.552874769783</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.62619637397</v>
+        <v>2458.626196373968</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805658</v>
+        <v>2362.681322805656</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098442</v>
+        <v>2334.49815909844</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250804</v>
+        <v>2500.819361250802</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095317</v>
+        <v>2911.709630095315</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.474758001781</v>
+        <v>3158.474758001779</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281743</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945776</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164473</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P30" t="n">
-        <v>4555.115143601279</v>
+        <v>4565.745155698577</v>
       </c>
       <c r="Q30" t="n">
-        <v>4850.224560916993</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098068</v>
+        <v>4720.948468098066</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021846</v>
+        <v>4526.033852021844</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641233</v>
+        <v>4297.928927641231</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.77681940949</v>
+        <v>4062.776819409488</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>3808.539462681287</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475756</v>
+        <v>3600.687962475754</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710802</v>
+        <v>3392.9276637108</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
         <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>1341.503549752619</v>
+        <v>1332.890986794851</v>
       </c>
       <c r="W31" t="n">
-        <v>1341.503549752619</v>
+        <v>1043.47381675789</v>
       </c>
       <c r="X31" t="n">
-        <v>1113.513998854602</v>
+        <v>815.4842658598729</v>
       </c>
       <c r="Y31" t="n">
-        <v>892.7214197110717</v>
+        <v>594.6916867163428</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643324</v>
@@ -6724,28 +6724,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,16 +6776,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341677</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
         <v>1247.466478653857</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391116</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632086</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508728</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684797</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705693</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903899</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>1498.916270557903</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y34" t="n">
-        <v>1322.849341221355</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.3924131404653</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404653</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404653</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404653</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404653</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119733</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035286</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1037.48362228133</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U37" t="n">
-        <v>1037.48362228133</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V37" t="n">
-        <v>782.7991340754432</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W37" t="n">
-        <v>493.3819640384826</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X37" t="n">
-        <v>265.3924131404653</v>
+        <v>157.6003821033663</v>
       </c>
       <c r="Y37" t="n">
-        <v>265.3924131404653</v>
+        <v>157.6003821033663</v>
       </c>
     </row>
     <row r="38">
@@ -7168,10 +7168,10 @@
         <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7189,16 +7189,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,19 +7350,19 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
         <v>869.3083006011506</v>
@@ -7374,10 +7374,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7426,13 +7426,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>99.73930261363378</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>99.73930261363378</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>99.73930261363378</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>99.73930261363378</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>99.73930261363378</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7572,13 +7572,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1320.176150561012</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1320.176150561012</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1031.04751177457</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>776.3630235686835</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W43" t="n">
-        <v>486.9458535317228</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X43" t="n">
-        <v>486.9458535317228</v>
+        <v>268.6754855415407</v>
       </c>
       <c r="Y43" t="n">
-        <v>266.1532743881928</v>
+        <v>268.6754855415407</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7657,19 +7657,19 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7715,40 +7715,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,13 +7824,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1382.222354598086</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,19 +8294,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627887</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8537,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776773</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445227</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>85.3000633212781</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>409.7003683229576</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208043</v>
+        <v>288.4091825776736</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229573</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298011</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298102</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>105.9521741567375</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>44.27839330891821</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23484,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6695415024086</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>23.15965687994735</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>31.50305832721008</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>64.54500427083445</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>140.2723743590792</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24183,7 +24183,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>79.43092547709122</v>
       </c>
     </row>
     <row r="23">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63.27145273310761</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6695415024084</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>10.65497486614538</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>44.27839330891754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>96.29904972659716</v>
+        <v>87.77261239840709</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>159.5688032336831</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.2783933089126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>89.13437063088655</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>72.61440165197325</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>146.4168393257217</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>20.96809118668156</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>847841.4164015057</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>847841.4164015061</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>847841.4164015061</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="14">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583909</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459072</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="G2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459068</v>
       </c>
       <c r="H2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.230645907</v>
       </c>
       <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
         <v>527889.2306459072</v>
       </c>
       <c r="N2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459072</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459068</v>
       </c>
       <c r="P2" t="n">
         <v>527889.2306459069</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768954</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>6.447613714044564e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145979.3810050736</v>
+        <v>147709.4414611872</v>
       </c>
       <c r="C4" t="n">
-        <v>145979.3810050736</v>
+        <v>147709.4414611872</v>
       </c>
       <c r="D4" t="n">
-        <v>145979.3810050736</v>
+        <v>147709.4414611872</v>
       </c>
       <c r="E4" t="n">
-        <v>6357.27647606932</v>
+        <v>7749.647172442682</v>
       </c>
       <c r="F4" t="n">
-        <v>6357.276476069319</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="G4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="H4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="I4" t="n">
-        <v>6357.276476069317</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="J4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="K4" t="n">
-        <v>6357.276476069316</v>
+        <v>7749.647172442728</v>
       </c>
       <c r="L4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442683</v>
       </c>
       <c r="M4" t="n">
-        <v>6357.276476069318</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="N4" t="n">
-        <v>6357.276476069314</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="O4" t="n">
-        <v>6357.276476069316</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="P4" t="n">
-        <v>6357.276476069315</v>
+        <v>7749.647172442681</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871658</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26493,19 +26493,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264603.1436246363</v>
+        <v>-266333.2040807502</v>
       </c>
       <c r="C6" t="n">
-        <v>325364.735589908</v>
+        <v>323634.6751337943</v>
       </c>
       <c r="D6" t="n">
-        <v>325364.735589908</v>
+        <v>323634.6751337948</v>
       </c>
       <c r="E6" t="n">
-        <v>-95615.40825577447</v>
+        <v>-97007.77895214793</v>
       </c>
       <c r="F6" t="n">
-        <v>429544.6282211204</v>
+        <v>428152.2575247475</v>
       </c>
       <c r="G6" t="n">
-        <v>429544.6282211209</v>
+        <v>428152.2575247477</v>
       </c>
       <c r="H6" t="n">
-        <v>429544.628221121</v>
+        <v>428152.2575247477</v>
       </c>
       <c r="I6" t="n">
-        <v>429544.6282211212</v>
+        <v>428152.2575247477</v>
       </c>
       <c r="J6" t="n">
-        <v>253121.409028528</v>
+        <v>251729.0383321547</v>
       </c>
       <c r="K6" t="n">
-        <v>429544.6282211213</v>
+        <v>428152.2575247478</v>
       </c>
       <c r="L6" t="n">
-        <v>429544.628221121</v>
+        <v>428152.2575247475</v>
       </c>
       <c r="M6" t="n">
-        <v>294743.6129872843</v>
+        <v>293351.2422909108</v>
       </c>
       <c r="N6" t="n">
-        <v>429544.6282211213</v>
+        <v>428152.2575247476</v>
       </c>
       <c r="O6" t="n">
-        <v>429544.6282211208</v>
+        <v>428152.2575247479</v>
       </c>
       <c r="P6" t="n">
-        <v>429544.6282211209</v>
+        <v>428152.2575247476</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054540996</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="D4" t="n">
-        <v>674.2872727545555</v>
-      </c>
       <c r="E4" t="n">
-        <v>1215.213643253572</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26819,10 +26819,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237013</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990169</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>144.4751686438914</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>310.7606899497143</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>136.7057146380968</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>126.0489046421611</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,13 +27621,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>39.33357018799722</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>14.65885272800598</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361536</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
-        <v>235.4618279199269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>144.9597797083348</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>24.37936745074319</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.104943754957264e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29924,7 +29924,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-8.463989355239118e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443614</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444942</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961202</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041484</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304435</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565515</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927181</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540881</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946989</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647493</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104643</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354891</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386724</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127059</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215732</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.416877562298</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358982</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724842</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813458</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855523</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458547</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710954</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677462</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361484</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298627</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196122</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171317</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263749</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469071</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.387743223569</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337664</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336899</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.39802836989224</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351808</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,37 +33186,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33292,7 +33292,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35257,7 +35257,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303326</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109067</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221112</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081114</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951467</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.606025510912</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502045</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349793</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953154</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005176</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.257704956024</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504659</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980125</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411078</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092017</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.090320520923</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556545</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299104</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799284</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789723</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206027</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118006</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187466</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>127.2102422761848</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>720.1247453734239</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.765211552329</v>
+        <v>495.5025975091983</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734237</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118059</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349582</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/2000000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Output Files/2000000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2263877.78197924</v>
+        <v>2256860.767087528</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>237.4552014283703</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>100.9589955168703</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>118.9621335895201</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>126.0887386816669</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>105.9455272731791</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>367.5424755537142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>25.31590541686252</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,13 +1138,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>163.9206648785247</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,16 +1189,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>22.35002255071607</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>92.39041249234444</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>66.14085215535378</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273987</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>86.80469552384545</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>220.6345849966179</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
-        <v>139.1537278750036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7644211441608035</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>155.8385935972322</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2848,7 +2848,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>164.3650309254209</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>118.5406516018299</v>
       </c>
     </row>
     <row r="32">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3283,7 +3283,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>59.77945773664958</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>143.2925104849745</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>2.49698904181446</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>204.6102499989407</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1603.407129497228</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1603.407129497228</v>
+        <v>906.9212171249367</v>
       </c>
       <c r="D2" t="n">
-        <v>1603.407129497228</v>
+        <v>548.6555185181862</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>162.867265919942</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>155.9217651707385</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.282427122408</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497228</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,7 +4497,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N4" t="n">
         <v>529.6040388502502</v>
@@ -4506,34 +4506,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>607.965212903889</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V4" t="n">
-        <v>571.3497027553424</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>808.0839286340179</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C5" t="n">
-        <v>439.1214116936061</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D5" t="n">
-        <v>439.1214116936061</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>439.1214116936061</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935031</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673951</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1194.68376869814</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
       <c r="S7" t="n">
-        <v>597.8010803716834</v>
+        <v>702.55736257324</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>702.55736257324</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>702.55736257324</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036446</v>
+        <v>702.55736257324</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036446</v>
+        <v>702.55736257324</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036446</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>609.3508327416157</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>240.388315801204</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>995.9506728057374</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4889,10 +4889,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>245.45494510253</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>76.51876217462311</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>76.51876217462311</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>245.45494510253</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>245.45494510253</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341671</v>
+        <v>940.1463453738959</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126628</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918009</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.475226584133</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C13" t="n">
-        <v>927.5390436562257</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>777.4224042438899</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>629.5093106614968</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>482.6193631635864</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>314.444041483407</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>164.0260330313503</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5235,16 +5235,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.123691414372</v>
+        <v>954.8146123150548</v>
       </c>
     </row>
     <row r="14">
@@ -5257,40 +5257,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5366,7 +5366,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1411.234759927755</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1211.314749843308</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1211.314749843308</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1211.314749843308</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1211.314749843308</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.314749843308</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5506,10 +5506,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028562</v>
@@ -5518,7 +5518,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.977949951427</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>875.5607799144661</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>647.5712290164488</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>426.7786498729187</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5752,13 +5752,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5940,19 +5940,19 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>755.183133481126</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>465.7659634441654</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>237.776412546148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5989,10 +5989,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6004,7 +6004,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6031,10 +6031,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>675.0071030383442</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C25" t="n">
-        <v>675.0071030383442</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D25" t="n">
-        <v>675.0071030383442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383442</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>675.0071030383442</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>675.0071030383442</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>675.0071030383442</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>675.0071030383442</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6226,7 +6226,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
@@ -6241,7 +6241,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4230.423978142506</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C28" t="n">
-        <v>4061.487795214599</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D28" t="n">
-        <v>3911.371155802263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3763.45806221987</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3616.56811472196</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014292</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>4860.854573014292</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X28" t="n">
-        <v>4632.865022116275</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y28" t="n">
-        <v>4412.072442972745</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>413.0432218861031</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="C31" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="D31" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>1332.890986794851</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W31" t="n">
-        <v>1043.47381675789</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X31" t="n">
-        <v>815.4842658598729</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.6916867163428</v>
+        <v>376.9270045185177</v>
       </c>
     </row>
     <row r="32">
@@ -6691,40 +6691,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.666285013068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>1498.916270557902</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>1432.107328986838</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>1211.314749843308</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6958,31 +6958,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>157.6003821033663</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C37" t="n">
-        <v>157.6003821033663</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>157.6003821033663</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>157.6003821033663</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>157.6003821033663</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>157.6003821033663</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>675.0071030383442</v>
+        <v>1354.17636097712</v>
       </c>
       <c r="W37" t="n">
-        <v>385.5899330013836</v>
+        <v>1064.759190940159</v>
       </c>
       <c r="X37" t="n">
-        <v>157.6003821033663</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y37" t="n">
-        <v>157.6003821033663</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
     <row r="38">
@@ -7162,16 +7162,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7183,28 +7183,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7268,7 +7268,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>268.6754855415407</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C43" t="n">
-        <v>99.73930261363378</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D43" t="n">
-        <v>99.73930261363378</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E43" t="n">
-        <v>99.73930261363378</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>99.73930261363378</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>99.73930261363378</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>786.0822064765186</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>496.665036439558</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>268.6754855415407</v>
+        <v>748.1375921141046</v>
       </c>
       <c r="Y43" t="n">
-        <v>268.6754855415407</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7830,22 +7830,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747117</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627887</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>145.2351313103795</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165131</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165117</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776736</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10427,28 +10427,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>87.44156768959286</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>44.27839330891821</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>23.15965687994735</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>31.50305832721008</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
-        <v>79.43092547709122</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24369,22 +24369,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>30.12558851170024</v>
       </c>
       <c r="E25" t="n">
-        <v>145.6695415024084</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>10.65497486614538</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24660,10 +24660,10 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>87.77261239840709</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>100.0440017502649</v>
       </c>
     </row>
     <row r="32">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>89.13437063088655</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>146.4168393257217</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>21.09940539009645</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
         <v>527889.230645907</v>
@@ -26334,28 +26334,28 @@
         <v>527889.230645907</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459073</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="N2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.2306459069</v>
       </c>
-      <c r="O2" t="n">
-        <v>527889.2306459072</v>
-      </c>
       <c r="P2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147709.4414611872</v>
+        <v>147709.4414611871</v>
       </c>
       <c r="C4" t="n">
         <v>147709.4414611872</v>
@@ -26426,34 +26426,34 @@
         <v>147709.4414611872</v>
       </c>
       <c r="E4" t="n">
-        <v>7749.647172442682</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="F4" t="n">
-        <v>7749.64717244268</v>
+        <v>7749.647172442721</v>
       </c>
       <c r="G4" t="n">
-        <v>7749.64717244268</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="H4" t="n">
         <v>7749.647172442681</v>
       </c>
       <c r="I4" t="n">
-        <v>7749.647172442681</v>
+        <v>7749.647172442679</v>
       </c>
       <c r="J4" t="n">
         <v>7749.647172442681</v>
       </c>
       <c r="K4" t="n">
-        <v>7749.647172442728</v>
+        <v>7749.647172442679</v>
       </c>
       <c r="L4" t="n">
-        <v>7749.647172442683</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="M4" t="n">
-        <v>7749.647172442681</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="N4" t="n">
-        <v>7749.647172442681</v>
+        <v>7749.647172442682</v>
       </c>
       <c r="O4" t="n">
         <v>7749.64717244268</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="C5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="C5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,7 +26487,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,7 +26496,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266333.2040807502</v>
+        <v>-266333.2040807501</v>
       </c>
       <c r="C6" t="n">
-        <v>323634.6751337943</v>
+        <v>323634.6751337942</v>
       </c>
       <c r="D6" t="n">
         <v>323634.6751337948</v>
       </c>
       <c r="E6" t="n">
-        <v>-97007.77895214793</v>
+        <v>-97982.37021186997</v>
       </c>
       <c r="F6" t="n">
-        <v>428152.2575247475</v>
+        <v>427177.6662650261</v>
       </c>
       <c r="G6" t="n">
-        <v>428152.2575247477</v>
+        <v>427177.666265026</v>
       </c>
       <c r="H6" t="n">
-        <v>428152.2575247477</v>
+        <v>427177.666265026</v>
       </c>
       <c r="I6" t="n">
-        <v>428152.2575247477</v>
+        <v>427177.6662650259</v>
       </c>
       <c r="J6" t="n">
-        <v>251729.0383321547</v>
+        <v>250754.4470724334</v>
       </c>
       <c r="K6" t="n">
-        <v>428152.2575247478</v>
+        <v>427177.6662650259</v>
       </c>
       <c r="L6" t="n">
-        <v>428152.2575247475</v>
+        <v>427177.6662650259</v>
       </c>
       <c r="M6" t="n">
-        <v>293351.2422909108</v>
+        <v>292376.6510311887</v>
       </c>
       <c r="N6" t="n">
-        <v>428152.2575247476</v>
+        <v>427177.6662650257</v>
       </c>
       <c r="O6" t="n">
-        <v>428152.2575247479</v>
+        <v>427177.6662650259</v>
       </c>
       <c r="P6" t="n">
-        <v>428152.2575247476</v>
+        <v>427177.666265026</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26755,7 +26755,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>144.4751686438914</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>312.8251745039246</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>27.70305839063772</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27596,13 +27596,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>126.0489046421611</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>259.3273644978285</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>39.33357018799722</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>3.806844538051777</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>83.12091415361536</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,13 +27858,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>190.7623767421583</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,16 +27909,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>144.9597797083348</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>46.83478528866308</v>
       </c>
     </row>
     <row r="11">
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>8.952838470577262e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -31047,7 +31047,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31056,34 +31056,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M2" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,40 +31120,40 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
@@ -31162,7 +31162,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31846,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31855,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31934,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560242</v>
+        <v>394.4928362664038</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145259</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35509,7 +35509,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35734,10 +35734,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
@@ -35983,7 +35983,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091983</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37636,10 +37636,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37794,7 +37794,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/2000000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Output Files/2000000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2256860.767087528</v>
+        <v>2261800.029936559</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,22 +661,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>100.9589955168703</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25.73468253713871</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>118.9621335895201</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>105.9455272731791</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>374.7088911267476</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>163.9206648785247</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>171.7498680634317</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>92.39041249234444</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>50.49123281001185</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273987</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,13 +1824,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>196.9337346452251</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>183.4653217847137</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2298,13 +2298,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>201.171051660668</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2611,7 +2611,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>57.64843562452406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6960756342353</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.5406516018299</v>
+        <v>70.98982250293574</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>206.806426921486</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>129.3514056639565</v>
       </c>
     </row>
     <row r="35">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.1661384044145893</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>143.2925104849745</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>111.8508996147489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750035</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3757,7 +3757,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>204.6102499989407</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>47.20011114811113</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C2" t="n">
-        <v>906.9212171249367</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D2" t="n">
-        <v>548.6555185181862</v>
+        <v>504.8469194967738</v>
       </c>
       <c r="E2" t="n">
-        <v>162.867265919942</v>
+        <v>504.8469194967738</v>
       </c>
       <c r="F2" t="n">
-        <v>155.9217651707385</v>
+        <v>93.86101470716619</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>79.93761064575709</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615929</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>393.6767897220517</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220517</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>607.965212903889</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>393.6767897220517</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.6767897220517</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1470.569074795015</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="F5" t="n">
         <v>952.5674858910851</v>
@@ -4570,16 +4570,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>702.55736257324</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X7" t="n">
-        <v>702.55736257324</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>609.3508327416157</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>240.388315801204</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.555763042629</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.090004781549</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.9506728057374</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y10" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5041,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5123,13 +5123,13 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>940.1463453738959</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>861.4909633328887</v>
+        <v>761.6147079354637</v>
       </c>
       <c r="C13" t="n">
-        <v>692.5547804049818</v>
+        <v>761.6147079354637</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150548</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.8146123150548</v>
+        <v>943.2631727657034</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.09316900344</v>
@@ -5266,31 +5266,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805461</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822453</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5472,16 +5472,16 @@
         <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>587.1592421884125</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="17">
@@ -5518,25 +5518,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115524</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5752,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115524</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5980,40 +5980,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K24" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L24" t="n">
-        <v>1163.495507227045</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M24" t="n">
-        <v>1722.015429253975</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.3840174432676</v>
+        <v>1027.850635690702</v>
       </c>
       <c r="C28" t="n">
-        <v>155.4478345153607</v>
+        <v>858.9144527627952</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>708.7978133504595</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>560.8847197680664</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>413.994772270156</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
         <v>97.21709146028584</v>
@@ -6420,16 +6420,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W28" t="n">
-        <v>954.8146123150548</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>726.8250614170374</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y28" t="n">
-        <v>506.0324822735073</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="29">
@@ -6442,22 +6442,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6466,10 +6466,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>376.9270045185177</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C31" t="n">
-        <v>376.9270045185177</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D31" t="n">
-        <v>376.9270045185177</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W31" t="n">
-        <v>496.665036439558</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X31" t="n">
-        <v>496.665036439558</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y31" t="n">
-        <v>376.9270045185177</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6694,13 +6694,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514082</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>565.9270610048577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -7016,22 +7016,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>434.3285960683721</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.8029164824583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.38490803040159</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1354.17636097712</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W37" t="n">
-        <v>1064.759190940159</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X37" t="n">
-        <v>836.769640042142</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y37" t="n">
-        <v>615.9770608986119</v>
+        <v>247.8029164824583</v>
       </c>
     </row>
     <row r="38">
@@ -7165,13 +7165,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7183,22 +7183,22 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7268,13 +7268,13 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>510.7324460062429</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>510.7324460062429</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>360.6158065939071</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>360.6158065939071</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>360.6158065939071</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>692.3809108364826</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,16 +7399,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7435,7 +7435,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>527.3450129705744</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C43" t="n">
-        <v>527.3450129705744</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D43" t="n">
-        <v>527.3450129705744</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7611,10 +7611,10 @@
         <v>954.8146123150548</v>
       </c>
       <c r="X43" t="n">
-        <v>748.1375921141046</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y43" t="n">
-        <v>527.3450129705744</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324571</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954965</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>145.2351313103795</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.4091825776757</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>96.03744927814711</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>253.7371603504736</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,16 +10439,16 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>230.7151863772034</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445217</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,10 +10664,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10676,13 +10676,13 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.44156768959286</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>98.1242402082005</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>89.58926369136589</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>14.45548819888955</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>50.96659166315996</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>30.12558851170024</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>90.96703739368829</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>1.7974928291423</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24660,16 +24660,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.0440017502649</v>
+        <v>147.5948308491591</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>89.23324768813825</v>
       </c>
     </row>
     <row r="35">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>110.2531070598574</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>108.8451328388535</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>54.64266884862869</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,16 +25599,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338571</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>88.78552702204513</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>21.09940539009645</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>120.0467099505167</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="G2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="H2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="I2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.2306459069</v>
-      </c>
       <c r="J2" t="n">
-        <v>527889.2306459073</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="N2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147709.4414611871</v>
+        <v>147709.4414611872</v>
       </c>
       <c r="C4" t="n">
         <v>147709.4414611872</v>
@@ -26429,34 +26429,34 @@
         <v>7749.64717244268</v>
       </c>
       <c r="F4" t="n">
-        <v>7749.647172442721</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="G4" t="n">
         <v>7749.647172442681</v>
       </c>
       <c r="H4" t="n">
-        <v>7749.647172442681</v>
+        <v>7749.64717244268</v>
       </c>
       <c r="I4" t="n">
-        <v>7749.647172442679</v>
+        <v>7749.647172442683</v>
       </c>
       <c r="J4" t="n">
         <v>7749.647172442681</v>
       </c>
       <c r="K4" t="n">
+        <v>7749.647172442681</v>
+      </c>
+      <c r="L4" t="n">
         <v>7749.647172442679</v>
       </c>
-      <c r="L4" t="n">
-        <v>7749.64717244268</v>
-      </c>
       <c r="M4" t="n">
-        <v>7749.64717244268</v>
+        <v>7749.647172442679</v>
       </c>
       <c r="N4" t="n">
-        <v>7749.647172442682</v>
+        <v>7749.647172442679</v>
       </c>
       <c r="O4" t="n">
-        <v>7749.64717244268</v>
+        <v>7749.647172442681</v>
       </c>
       <c r="P4" t="n">
         <v>7749.647172442681</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266333.2040807501</v>
+        <v>-266333.2040807502</v>
       </c>
       <c r="C6" t="n">
-        <v>323634.6751337942</v>
+        <v>323634.6751337944</v>
       </c>
       <c r="D6" t="n">
         <v>323634.6751337948</v>
       </c>
       <c r="E6" t="n">
-        <v>-97982.37021186997</v>
+        <v>-97105.23807812085</v>
       </c>
       <c r="F6" t="n">
-        <v>427177.6662650261</v>
+        <v>428054.7983987753</v>
       </c>
       <c r="G6" t="n">
-        <v>427177.666265026</v>
+        <v>428054.7983987755</v>
       </c>
       <c r="H6" t="n">
-        <v>427177.666265026</v>
+        <v>428054.7983987756</v>
       </c>
       <c r="I6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987755</v>
       </c>
       <c r="J6" t="n">
-        <v>250754.4470724334</v>
+        <v>251631.5792061827</v>
       </c>
       <c r="K6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987753</v>
       </c>
       <c r="L6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987755</v>
       </c>
       <c r="M6" t="n">
-        <v>292376.6510311887</v>
+        <v>293253.7831649384</v>
       </c>
       <c r="N6" t="n">
-        <v>427177.6662650257</v>
+        <v>428054.7983987756</v>
       </c>
       <c r="O6" t="n">
-        <v>427177.6662650259</v>
+        <v>428054.7983987756</v>
       </c>
       <c r="P6" t="n">
-        <v>427177.666265026</v>
+        <v>428054.7983987756</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26758,7 +26758,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>312.8251745039246</v>
-      </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>298.1880902272184</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>27.70305839063772</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>259.3273644978285</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>32.16715461496381</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.806844538051777</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>63.37316471551392</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>190.7623767421583</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>48.1947234108078</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>46.83478528866308</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="11">
@@ -28347,7 +28347,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8.952838470577262e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -31047,43 +31047,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,25 +31223,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031299</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34871,10 +34871,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>394.4928362664038</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.689756130333</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875337</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504662</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36129,7 +36129,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
@@ -36220,7 +36220,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>564.1615374009399</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37159,16 +37159,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>563.9097597752163</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>350.198519175048</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
@@ -37396,13 +37396,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37636,16 +37636,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>560.0354988619143</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
